--- a/CoreJava/bin/CybageAssignment/CoreJava.xlsx
+++ b/CoreJava/bin/CybageAssignment/CoreJava.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyData\MyWorkspace\CoreJava\bin\CybageAssignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDCD0C8-2B6E-4034-84F2-831D5828FCB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50146E6C-CAED-41CA-A26F-A84D64B932C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,21 +25,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
-  <si>
-    <t>re</t>
-  </si>
-  <si>
-    <t>rrty</t>
-  </si>
-  <si>
-    <t>hg</t>
-  </si>
-  <si>
-    <t>ggh</t>
-  </si>
-  <si>
-    <t>ghg</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Fruit</t>
+  </si>
+  <si>
+    <t>Colour</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Grapes</t>
+  </si>
+  <si>
+    <t>Black</t>
   </si>
 </sst>
 </file>
@@ -360,7 +363,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -375,21 +378,22 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/CoreJava/bin/CybageAssignment/CoreJava.xlsx
+++ b/CoreJava/bin/CybageAssignment/CoreJava.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyData\MyWorkspace\CoreJava\bin\CybageAssignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50146E6C-CAED-41CA-A26F-A84D64B932C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0D7712-EF68-423F-9569-38B027FAEAAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,13 +49,29 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF201F1E"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -78,8 +94,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,37 +392,239 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="4" max="4" width="28.109375" customWidth="1"/>
+    <col min="5" max="5" width="96.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" ht="15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" s="1"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="31.2" customHeight="1">
+      <c r="C4" s="1"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="15">
+      <c r="C5" s="1"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="15">
+      <c r="C6" s="1"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="15">
+      <c r="C7" s="1"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="15">
+      <c r="C8" s="1"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="15">
+      <c r="C9" s="1"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" ht="15">
+      <c r="C10" s="1"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" ht="15">
+      <c r="C11" s="1"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="15">
+      <c r="C12" s="1"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="15">
+      <c r="C13" s="1"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" ht="15">
+      <c r="C14" s="1"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" ht="15">
+      <c r="C15" s="1"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" ht="15">
+      <c r="C16" s="1"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="3:6" ht="15">
+      <c r="C17" s="1"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="3:6" ht="15">
+      <c r="C18" s="1"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="3:6" ht="15">
+      <c r="C19" s="1"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="3:6" ht="15">
+      <c r="C20" s="1"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="3:6" ht="15">
+      <c r="C21" s="1"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="3:6" ht="15">
+      <c r="C22" s="1"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="3:6" ht="15">
+      <c r="C23" s="1"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="3:6" ht="15">
+      <c r="C24" s="1"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="3:6" ht="15">
+      <c r="C25" s="1"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="3:6" ht="15">
+      <c r="C26" s="1"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="3:6" ht="15">
+      <c r="C27" s="1"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="3:6" ht="15">
+      <c r="C28" s="1"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="3:6" ht="15">
+      <c r="C29" s="1"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="3:6" ht="15">
+      <c r="C30" s="1"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="3:6" ht="15">
+      <c r="C31" s="1"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="3:6" ht="15">
+      <c r="C32" s="1"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="3:6" ht="15">
+      <c r="C33" s="1"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="3:6">
+      <c r="C34" s="1"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
